--- a/weighted_merge/metrics.xlsx
+++ b/weighted_merge/metrics.xlsx
@@ -476,26 +476,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>w_merge_test_0_85</t>
+          <t>w_merge_test_0_7</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8732762444288211</v>
+        <v>0.8732884916147792</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7419129101844257</v>
+        <v>0.7422094768864267</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8616612729052254</v>
+        <v>0.861015117173638</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1219964317616795</v>
+        <v>0.121716212865069</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7973159325159732</v>
+        <v>0.7972102998874144</v>
       </c>
     </row>
   </sheetData>
